--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\luzeforma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117607F1-8E45-43A1-9D14-8738CC609A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D7E4D9-DCD0-4651-83EF-9BDF042F0614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -45,31 +45,16 @@
     <t>idCliente</t>
   </si>
   <si>
-    <t>Prefeitura de Itapema</t>
-  </si>
-  <si>
-    <t>24/01/2023</t>
-  </si>
-  <si>
-    <t>C:\github\luzeforma\orcamentos\Prefeitura de Itapema_itaitiatiaita.xlsx</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cestas Boamesa </t>
-  </si>
-  <si>
-    <t>C:\github\luzeforma\orcamentos\Cestas Boamesa _obobobobo.xlsx</t>
-  </si>
-  <si>
-    <t>Boa meeeeeeeeeeesaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>Itapema Natal 2023</t>
-  </si>
-  <si>
-    <t>C:\github\luzeforma\orcamentos\Prefeitura de Itapema_Itapema Natal 2023.xlsx</t>
+    <t>titulo qualquer</t>
+  </si>
+  <si>
+    <t>Arranjo Decorações</t>
+  </si>
+  <si>
+    <t>25/01/2023</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Arranjo Decorações_titulo qualquer.xlsx</t>
   </si>
 </sst>
 </file>
@@ -403,7 +388,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU4"/>
+  <dimension ref="A1:FU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -416,7 +401,7 @@
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
@@ -778,59 +763,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D7E4D9-DCD0-4651-83EF-9BDF042F0614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30096984-9076-424B-81ED-BE13654A2C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\Arranjo Decorações_titulo qualquer.xlsx</t>
+  </si>
+  <si>
+    <t>Titulo 222</t>
+  </si>
+  <si>
+    <t>Fundação Cultural de Joinville w</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Fundação Cultural de Joinville w_Titulo 222.xlsx</t>
   </si>
 </sst>
 </file>
@@ -388,7 +397,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU2"/>
+  <dimension ref="A1:FU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -778,6 +787,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>221</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30096984-9076-424B-81ED-BE13654A2C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F0B3D8-D581-41C2-825E-F1CD96CF92E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -64,6 +64,27 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\Fundação Cultural de Joinville w_Titulo 222.xlsx</t>
+  </si>
+  <si>
+    <t>Prefeitura de Itapema</t>
+  </si>
+  <si>
+    <t>26/01/2023</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Itapema_.xlsx</t>
+  </si>
+  <si>
+    <t>Ilumina Tudo</t>
+  </si>
+  <si>
+    <t>Ilumitech E</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Ilumitech E_Ilumina Tudo.xlsx</t>
+  </si>
+  <si>
+    <t>Tal Título</t>
   </si>
 </sst>
 </file>
@@ -397,7 +418,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU3"/>
+  <dimension ref="A1:FU5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -807,6 +828,46 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F0B3D8-D581-41C2-825E-F1CD96CF92E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1300FB-C01B-44B4-8512-774C06DE7257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
+    <sheet name="paraFilter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -420,7 +421,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:FU5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -871,4 +872,17 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3583328-7A0D-4AD5-8EEA-15049113B02D}">
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1300FB-C01B-44B4-8512-774C06DE7257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292A3287-E95C-4FC5-AADB-3CDDD3111720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -46,25 +46,7 @@
     <t>idCliente</t>
   </si>
   <si>
-    <t>titulo qualquer</t>
-  </si>
-  <si>
-    <t>Arranjo Decorações</t>
-  </si>
-  <si>
-    <t>25/01/2023</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Arranjo Decorações_titulo qualquer.xlsx</t>
-  </si>
-  <si>
-    <t>Titulo 222</t>
-  </si>
-  <si>
-    <t>Fundação Cultural de Joinville w</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Fundação Cultural de Joinville w_Titulo 222.xlsx</t>
+    <t>tatatata</t>
   </si>
   <si>
     <t>Prefeitura de Itapema</t>
@@ -73,19 +55,16 @@
     <t>26/01/2023</t>
   </si>
   <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Itapema_.xlsx</t>
-  </si>
-  <si>
-    <t>Ilumina Tudo</t>
-  </si>
-  <si>
-    <t>Ilumitech E</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Ilumitech E_Ilumina Tudo.xlsx</t>
-  </si>
-  <si>
-    <t>Tal Título</t>
+    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Itapema_tatatata.xlsx</t>
+  </si>
+  <si>
+    <t>ergtsdf</t>
+  </si>
+  <si>
+    <t>Assoc. Com. e Ind. de Pindamonhangaba</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx</t>
   </si>
 </sst>
 </file>
@@ -419,10 +398,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU5"/>
+  <dimension ref="A1:FU3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -817,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -827,46 +806,6 @@
       </c>
       <c r="F3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +818,7 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292A3287-E95C-4FC5-AADB-3CDDD3111720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D00149-87F2-41BE-9447-1489D7CF115C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx</t>
+  </si>
+  <si>
+    <t>Shoping</t>
+  </si>
+  <si>
+    <t>Shopping Mueller Joinville 2</t>
+  </si>
+  <si>
+    <t>27/01/2023</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Shopping Mueller Joinville 2_Shoping.xlsx</t>
   </si>
 </sst>
 </file>
@@ -398,7 +410,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU3"/>
+  <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -808,6 +820,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D00149-87F2-41BE-9447-1489D7CF115C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5421E875-F0E0-48C7-B1D0-4DA29B69C78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>C:\GitHub\myxlsm\orcamentos\Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx</t>
   </si>
   <si>
-    <t>Shoping</t>
-  </si>
-  <si>
     <t>Shopping Mueller Joinville 2</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\Shopping Mueller Joinville 2_Shoping.xlsx</t>
+  </si>
+  <si>
+    <t>Shoping Mueller</t>
   </si>
 </sst>
 </file>
@@ -825,19 +825,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>38</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5421E875-F0E0-48C7-B1D0-4DA29B69C78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C100DA89-64C5-4E83-9FA0-32FB13B454C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C100DA89-64C5-4E83-9FA0-32FB13B454C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FA1BB1-0849-4604-B644-329042D19CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -67,16 +67,16 @@
     <t>C:\GitHub\myxlsm\orcamentos\Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx</t>
   </si>
   <si>
-    <t>Shopping Mueller Joinville 2</t>
-  </si>
-  <si>
-    <t>27/01/2023</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Shopping Mueller Joinville 2_Shoping.xlsx</t>
-  </si>
-  <si>
-    <t>Shoping Mueller</t>
+    <t>adadada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefeitura de Adamantina </t>
+  </si>
+  <si>
+    <t>30/01/2023</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Adamantina _adadada.xlsx</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,19 +825,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FA1BB1-0849-4604-B644-329042D19CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC0098E-06BD-4995-AAED-A4529BFEFC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -46,28 +46,7 @@
     <t>idCliente</t>
   </si>
   <si>
-    <t>tatatata</t>
-  </si>
-  <si>
-    <t>Prefeitura de Itapema</t>
-  </si>
-  <si>
-    <t>26/01/2023</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Itapema_tatatata.xlsx</t>
-  </si>
-  <si>
-    <t>ergtsdf</t>
-  </si>
-  <si>
-    <t>Assoc. Com. e Ind. de Pindamonhangaba</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Assoc. Com. e Ind. de Pindamonhangaba_ergtsdf.xlsx</t>
-  </si>
-  <si>
-    <t>adadada</t>
+    <t>adada</t>
   </si>
   <si>
     <t xml:space="preserve">Prefeitura de Adamantina </t>
@@ -76,7 +55,7 @@
     <t>30/01/2023</t>
   </si>
   <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Adamantina _adadada.xlsx</t>
+    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Adamantina _adada.xlsx</t>
   </si>
 </sst>
 </file>
@@ -410,10 +389,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU4"/>
+  <dimension ref="A1:FU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -798,46 +777,6 @@
       </c>
       <c r="F2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC0098E-06BD-4995-AAED-A4529BFEFC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4D1FA7-E0D2-477F-B02E-F4F634FE77BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4D1FA7-E0D2-477F-B02E-F4F634FE77BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56183AB8-5D91-4DC9-82C5-DCBF9ED3586F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <t>idCliente</t>
   </si>
   <si>
-    <t>adada</t>
+    <t>asdasdasd</t>
   </si>
   <si>
     <t xml:space="preserve">Prefeitura de Adamantina </t>
@@ -55,7 +55,7 @@
     <t>30/01/2023</t>
   </si>
   <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Adamantina _adada.xlsx</t>
+    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Adamantina _asdasdasd.xlsx</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:FU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56183AB8-5D91-4DC9-82C5-DCBF9ED3586F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CD9DA9-A3F6-45FA-A3E7-C796C60841B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CD9DA9-A3F6-45FA-A3E7-C796C60841B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92701DDB-B42E-46A1-86EC-354D7713ACE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -46,16 +46,16 @@
     <t>idCliente</t>
   </si>
   <si>
-    <t>asdasdasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefeitura de Adamantina </t>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>Shopping Mueller Joinville 2</t>
   </si>
   <si>
     <t>30/01/2023</t>
   </si>
   <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Adamantina _asdasdasd.xlsx</t>
+    <t>C:\GitHub\myxlsm\orcamentos\Shopping Mueller Joinville 2_asdasd.xlsx</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A1:FU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92701DDB-B42E-46A1-86EC-354D7713ACE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42861D46-1F66-4CB3-AA31-F67A2B30DB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42861D46-1F66-4CB3-AA31-F67A2B30DB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DF9B8E-8D9D-4579-A8D1-442C0B3CC4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DF9B8E-8D9D-4579-A8D1-442C0B3CC4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493DFE8-46D9-4B2E-B5B9-75D48E574DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\Shopping Mueller Joinville 2_asdasd.xlsx</t>
+  </si>
+  <si>
+    <t>Fundação</t>
+  </si>
+  <si>
+    <t>Fundação Cultural de Camboriú</t>
+  </si>
+  <si>
+    <t>31/01/2023</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Fundação Cultural de Camboriú_Fundação.xlsx</t>
   </si>
 </sst>
 </file>
@@ -389,7 +401,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU2"/>
+  <dimension ref="A1:FU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -779,6 +791,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493DFE8-46D9-4B2E-B5B9-75D48E574DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8037D783-A52A-4E4C-BE88-F7D62C9E7693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>idCliente</t>
   </si>
   <si>
-    <t>asdasd</t>
-  </si>
-  <si>
     <t>Shopping Mueller Joinville 2</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\Fundação Cultural de Camboriú_Fundação.xlsx</t>
+  </si>
+  <si>
+    <t>Shopping</t>
   </si>
 </sst>
 </file>
@@ -776,19 +776,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>38</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:177" x14ac:dyDescent="0.3">
@@ -796,19 +796,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8037D783-A52A-4E4C-BE88-F7D62C9E7693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEAFF3A-7C04-4849-B371-224E7AE17822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>Shopping</t>
+  </si>
+  <si>
+    <t>Município</t>
+  </si>
+  <si>
+    <t>Prefeitura Municipal de Joinville</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura Municipal de Joinville_Município.xlsx</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU3"/>
+  <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -811,6 +820,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>222</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEAFF3A-7C04-4849-B371-224E7AE17822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4D72EB-F5B0-44F9-A46F-D5773F062708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4D72EB-F5B0-44F9-A46F-D5773F062708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4B75A4-CCE6-4248-A5C8-542CC1A59F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -46,37 +46,13 @@
     <t>idCliente</t>
   </si>
   <si>
-    <t>Shopping Mueller Joinville 2</t>
-  </si>
-  <si>
-    <t>30/01/2023</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Shopping Mueller Joinville 2_asdasd.xlsx</t>
-  </si>
-  <si>
-    <t>Fundação</t>
-  </si>
-  <si>
-    <t>Fundação Cultural de Camboriú</t>
-  </si>
-  <si>
-    <t>31/01/2023</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Fundação Cultural de Camboriú_Fundação.xlsx</t>
-  </si>
-  <si>
-    <t>Shopping</t>
-  </si>
-  <si>
-    <t>Município</t>
-  </si>
-  <si>
-    <t>Prefeitura Municipal de Joinville</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura Municipal de Joinville_Município.xlsx</t>
+    <t>BoaBoaBoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cestas Boamesa </t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Cestas Boamesa _BoaBoaBoa.xlsx</t>
   </si>
 </sst>
 </file>
@@ -118,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -129,6 +105,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +387,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU4"/>
+  <dimension ref="A1:FU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,59 +762,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" s="4">
+        <v>44928</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>222</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4B75A4-CCE6-4248-A5C8-542CC1A59F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE576825-9727-46E8-B1DC-9AB8DD2540E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE576825-9727-46E8-B1DC-9AB8DD2540E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C130C9-E58E-4117-B557-5EEA23B0F57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C130C9-E58E-4117-B557-5EEA23B0F57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477245F0-5217-4E5D-9FB5-038A22381C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\Cestas Boamesa _BoaBoaBoa.xlsx</t>
+  </si>
+  <si>
+    <t>Jockey Club - Páscoa 2023</t>
+  </si>
+  <si>
+    <t>JOCKEY CLUB</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx</t>
   </si>
 </sst>
 </file>
@@ -387,7 +396,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU2"/>
+  <dimension ref="A1:FU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -777,6 +786,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1888</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>44928</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477245F0-5217-4E5D-9FB5-038A22381C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB33A12A-FF7D-46EE-8BA1-163EBBACCB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB33A12A-FF7D-46EE-8BA1-163EBBACCB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CE28EF-4B53-420D-8C0A-05EEB9776A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CE28EF-4B53-420D-8C0A-05EEB9776A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045B815F-A3FA-4A17-B2EC-AF0A9F6452ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -46,22 +46,13 @@
     <t>idCliente</t>
   </si>
   <si>
-    <t>BoaBoaBoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cestas Boamesa </t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Cestas Boamesa _BoaBoaBoa.xlsx</t>
-  </si>
-  <si>
-    <t>Jockey Club - Páscoa 2023</t>
-  </si>
-  <si>
-    <t>JOCKEY CLUB</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_Jockey Club - Páscoa 2023.xlsx</t>
+    <t>wwwwwwww</t>
+  </si>
+  <si>
+    <t>Casa d´Agronômica pppp</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Casa d´Agronômica pppp_wwwwwwww.xlsx</t>
   </si>
 </sst>
 </file>
@@ -396,10 +387,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU3"/>
+  <dimension ref="A1:FU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,36 +765,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4">
-        <v>44928</v>
+        <v>45079</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1888</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
-        <v>44928</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045B815F-A3FA-4A17-B2EC-AF0A9F6452ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A4112F-D052-464E-95B3-E08EF1B5FD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\Casa d´Agronômica pppp_wwwwwwww.xlsx</t>
+  </si>
+  <si>
+    <t>pinpin</t>
+  </si>
+  <si>
+    <t>Assoc. Com. e Ind. de Pindamonhangaba</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Assoc. Com. e Ind. de Pindamonhangaba_pinpin.xlsx</t>
   </si>
 </sst>
 </file>
@@ -387,7 +396,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU2"/>
+  <dimension ref="A1:FU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -777,6 +786,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A4112F-D052-464E-95B3-E08EF1B5FD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521DA56-3ADE-4F5F-A68E-243DA64A38BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2521DA56-3ADE-4F5F-A68E-243DA64A38BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7853AD-2008-4C2C-BEB6-89FBB0011372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -46,22 +46,13 @@
     <t>idCliente</t>
   </si>
   <si>
-    <t>wwwwwwww</t>
-  </si>
-  <si>
-    <t>Casa d´Agronômica pppp</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Casa d´Agronômica pppp_wwwwwwww.xlsx</t>
-  </si>
-  <si>
-    <t>pinpin</t>
-  </si>
-  <si>
-    <t>Assoc. Com. e Ind. de Pindamonhangaba</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Assoc. Com. e Ind. de Pindamonhangaba_pinpin.xlsx</t>
+    <t>itaitaitia</t>
+  </si>
+  <si>
+    <t>Prefeitura de Itapema</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Itapema_itaitaitia.xlsx</t>
   </si>
 </sst>
 </file>
@@ -396,10 +387,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU3"/>
+  <dimension ref="A1:FU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,36 +765,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4">
-        <v>45079</v>
+        <v>45109</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45109</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7853AD-2008-4C2C-BEB6-89FBB0011372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926A0956-7142-47D5-B634-DAC4FF5D1AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7853AD-2008-4C2C-BEB6-89FBB0011372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F77C0-B571-4ADE-B432-41EFD669DDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
     <sheet name="paraFilter" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +62,15 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Itapema_itaitaitia.xlsx</t>
+  </si>
+  <si>
+    <t>pÁSCOA 2023</t>
+  </si>
+  <si>
+    <t>JOCKEY CLUB</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_pÁSCOA 2023.xlsx</t>
   </si>
 </sst>
 </file>
@@ -387,7 +405,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU2"/>
+  <dimension ref="A1:FU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -777,6 +795,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1888</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F77C0-B571-4ADE-B432-41EFD669DDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3529ECCB-F897-4759-B73C-41B77229D7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_pÁSCOA 2023.xlsx</t>
+  </si>
+  <si>
+    <t>páscoa TESTE</t>
+  </si>
+  <si>
+    <t>Joinville Garden Shopping 2</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Joinville Garden Shopping 2_páscoa TESTE.xlsx</t>
   </si>
 </sst>
 </file>
@@ -405,7 +414,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU3"/>
+  <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -815,6 +824,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>647</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3529ECCB-F897-4759-B73C-41B77229D7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558A7D97-F0DA-4F2F-9EC0-76F91DCD58F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -55,31 +55,13 @@
     <t>idCliente</t>
   </si>
   <si>
-    <t>itaitaitia</t>
-  </si>
-  <si>
-    <t>Prefeitura de Itapema</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Itapema_itaitaitia.xlsx</t>
-  </si>
-  <si>
-    <t>pÁSCOA 2023</t>
+    <t>Orç. Páscoa 2023 - Jockey</t>
   </si>
   <si>
     <t>JOCKEY CLUB</t>
   </si>
   <si>
-    <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_pÁSCOA 2023.xlsx</t>
-  </si>
-  <si>
-    <t>páscoa TESTE</t>
-  </si>
-  <si>
-    <t>Joinville Garden Shopping 2</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Joinville Garden Shopping 2_páscoa TESTE.xlsx</t>
+    <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx</t>
   </si>
 </sst>
 </file>
@@ -417,7 +399,7 @@
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,57 +774,23 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1888</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4">
-        <v>45109</v>
+        <v>45140</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1888</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45109</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>647</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45109</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
+      <c r="E4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558A7D97-F0DA-4F2F-9EC0-76F91DCD58F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B25578-C222-4718-98CA-7FDF3CC57878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B25578-C222-4718-98CA-7FDF3CC57878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558A7D97-F0DA-4F2F-9EC0-76F91DCD58F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558A7D97-F0DA-4F2F-9EC0-76F91DCD58F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670BA748-AEC3-414D-991B-5E252B3EA0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670BA748-AEC3-414D-991B-5E252B3EA0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5F630D-4414-43AF-9CB6-FCDC73F29B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx</t>
+  </si>
+  <si>
+    <t>Jokey - Teste 2</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_Jokey - Teste 2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -787,7 +793,24 @@
       </c>
     </row>
     <row r="3" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="E3" s="4"/>
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1888</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:177" x14ac:dyDescent="0.3">
       <c r="E4" s="4"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670BA748-AEC3-414D-991B-5E252B3EA0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6BC126-3057-4AD0-B012-7217EDE8FAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx</t>
+  </si>
+  <si>
+    <t>dante</t>
+  </si>
+  <si>
+    <t>Assoc. Com. e Ind. de Pindamonhangaba</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Assoc. Com. e Ind. de Pindamonhangaba_dante.xlsx</t>
   </si>
 </sst>
 </file>
@@ -787,7 +796,24 @@
       </c>
     </row>
     <row r="3" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="E3" s="4"/>
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:177" x14ac:dyDescent="0.3">
       <c r="E4" s="4"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5F630D-4414-43AF-9CB6-FCDC73F29B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D6E6BA-464C-4994-976F-923A1F88E501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_Jokey - Teste 2.xlsx</t>
+  </si>
+  <si>
+    <t>boa boa boa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cestas Boamesa </t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Cestas Boamesa _boa boa boa.xlsx</t>
   </si>
 </sst>
 </file>
@@ -813,7 +822,24 @@
       </c>
     </row>
     <row r="4" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="E4" s="4"/>
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5F630D-4414-43AF-9CB6-FCDC73F29B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39682A1-9EA2-4217-A340-943E4491D746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39682A1-9EA2-4217-A340-943E4491D746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B4B036-9FF1-402F-B3D3-CD96975B732C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -55,19 +55,22 @@
     <t>idCliente</t>
   </si>
   <si>
-    <t>Orç. Páscoa 2023 - Jockey</t>
-  </si>
-  <si>
-    <t>JOCKEY CLUB</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx</t>
-  </si>
-  <si>
-    <t>Jokey - Teste 2</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_Jokey - Teste 2.xlsx</t>
+    <t>boaboa</t>
+  </si>
+  <si>
+    <t>Cestas Boamesa  4</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Cestas Boamesa  4_boaboa.xlsx</t>
+  </si>
+  <si>
+    <t>Itapema 2</t>
+  </si>
+  <si>
+    <t>Prefeitura de Itapema</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Itapema_Itapema 2.xlsx</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <dimension ref="A1:FU4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,13 +783,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1888</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4">
-        <v>45140</v>
+        <v>45201</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -800,20 +803,22 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1888</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4">
-        <v>45171</v>
+        <v>45201</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="E4" s="4"/>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B4B036-9FF1-402F-B3D3-CD96975B732C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBEE254-CA49-4AA6-B843-EB25BEEC9DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39682A1-9EA2-4217-A340-943E4491D746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D935B95-0BA1-4A56-8705-89D0C4A59FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -68,6 +68,24 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_Jokey - Teste 2.xlsx</t>
+  </si>
+  <si>
+    <t>TESTE CÍNTIA</t>
+  </si>
+  <si>
+    <t>Prefeitura de Itapema</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Itapema_TESTE CÍNTIA.xlsx</t>
+  </si>
+  <si>
+    <t>TESTE CADASTRO</t>
+  </si>
+  <si>
+    <t>Quantum Engenharia Elétrica Ltda</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Quantum Engenharia Elétrica Ltda_TESTE CADASTRO.xlsx</t>
   </si>
 </sst>
 </file>
@@ -402,7 +420,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU4"/>
+  <dimension ref="A1:FU5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -813,7 +831,44 @@
       </c>
     </row>
     <row r="4" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="E4" s="4"/>
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>180</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D935B95-0BA1-4A56-8705-89D0C4A59FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB15978-0701-44D9-A8B3-ED612B175916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -53,39 +53,6 @@
   </si>
   <si>
     <t>idCliente</t>
-  </si>
-  <si>
-    <t>Orç. Páscoa 2023 - Jockey</t>
-  </si>
-  <si>
-    <t>JOCKEY CLUB</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_Orç. Páscoa 2023 - Jockey.xlsx</t>
-  </si>
-  <si>
-    <t>Jokey - Teste 2</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\JOCKEY CLUB_Jokey - Teste 2.xlsx</t>
-  </si>
-  <si>
-    <t>TESTE CÍNTIA</t>
-  </si>
-  <si>
-    <t>Prefeitura de Itapema</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Itapema_TESTE CÍNTIA.xlsx</t>
-  </si>
-  <si>
-    <t>TESTE CADASTRO</t>
-  </si>
-  <si>
-    <t>Quantum Engenharia Elétrica Ltda</t>
-  </si>
-  <si>
-    <t>C:\GitHub\myxlsm\orcamentos\Quantum Engenharia Elétrica Ltda_TESTE CADASTRO.xlsx</t>
   </si>
 </sst>
 </file>
@@ -423,7 +390,7 @@
   <dimension ref="A1:FU5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,84 +758,16 @@
       <c r="FU1" s="3"/>
     </row>
     <row r="2" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1888</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4">
-        <v>45140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1888</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45171</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45201</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>180</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45201</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB15978-0701-44D9-A8B3-ED612B175916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A161DC99-A4DC-4691-B3C3-9FEECA038436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,30 @@
   </si>
   <si>
     <t>idCliente</t>
+  </si>
+  <si>
+    <t>Assoc. Beneficente Cultural e Esportiva de José Boiteux</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Assoc. Beneficente Cultural e Esportiva de José Boiteux_asdasd.xlsx</t>
+  </si>
+  <si>
+    <t>Operacao</t>
+  </si>
+  <si>
+    <t>Atendente</t>
+  </si>
+  <si>
+    <t>Dante wwww</t>
+  </si>
+  <si>
+    <t>ararara</t>
+  </si>
+  <si>
+    <t>Artchic</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Artchic_ararara.xlsx</t>
   </si>
 </sst>
 </file>
@@ -387,10 +411,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU5"/>
+  <dimension ref="A1:FU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,16 +782,56 @@
       <c r="FU1" s="3"/>
     </row>
     <row r="2" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="E2" s="4"/>
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45262</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:177" x14ac:dyDescent="0.3">
-      <c r="E5" s="4"/>
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45262</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A161DC99-A4DC-4691-B3C3-9FEECA038436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D81F872-897A-4C8C-BFAC-1106A0C0F979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D81F872-897A-4C8C-BFAC-1106A0C0F979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1BB136-2D9A-4224-A194-EED526A1C661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -77,6 +77,36 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\Artchic_ararara.xlsx</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>Secretaria de Estado da Administração eee</t>
+  </si>
+  <si>
+    <t>13/02/2023</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Secretaria de Estado da Administração eee_eee.xlsx</t>
+  </si>
+  <si>
+    <t>Cestas Boamesa  4</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Cestas Boamesa  4_Boa Boa Boa.xlsx</t>
+  </si>
+  <si>
+    <t>Boa Boa Boa bbbbb</t>
+  </si>
+  <si>
+    <t>Natal de Itapema</t>
+  </si>
+  <si>
+    <t>Prefeitura de Itapema</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Itapema_Natal de Itapema.xlsx</t>
   </si>
 </sst>
 </file>
@@ -411,7 +441,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU3"/>
+  <dimension ref="A1:FU6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -833,6 +863,84 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1BB136-2D9A-4224-A194-EED526A1C661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4268EF5-28A7-43F9-97BD-2B4552801EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -107,6 +107,24 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Itapema_Natal de Itapema.xlsx</t>
+  </si>
+  <si>
+    <t>arranjo</t>
+  </si>
+  <si>
+    <t>Arranjo Decorações</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Arranjo Decorações_arranjo.xlsx</t>
+  </si>
+  <si>
+    <t>adada</t>
+  </si>
+  <si>
+    <t>Prefeitura de Adamantina</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Adamantina_adada.xlsx</t>
   </si>
 </sst>
 </file>
@@ -441,7 +459,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU6"/>
+  <dimension ref="A1:FU8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -941,6 +959,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4268EF5-28A7-43F9-97BD-2B4552801EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688329D5-73CE-4F57-BF17-C71DD9F1644C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,13 +118,13 @@
     <t>C:\GitHub\myxlsm\orcamentos\Arranjo Decorações_arranjo.xlsx</t>
   </si>
   <si>
-    <t>adada</t>
-  </si>
-  <si>
     <t>Prefeitura de Adamantina</t>
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\Prefeitura de Adamantina_adada.xlsx</t>
+  </si>
+  <si>
+    <t>adada eeeeee</t>
   </si>
 </sst>
 </file>
@@ -990,19 +990,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688329D5-73CE-4F57-BF17-C71DD9F1644C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9957DB9B-AA84-4BB9-930E-A141AC850955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>adada eeeeee</t>
+  </si>
+  <si>
+    <t>C:\github\myxlsm\orcamentos\Arranjo Decorações_arranjo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU8"/>
+  <dimension ref="A1:FU9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1011,6 +1014,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9957DB9B-AA84-4BB9-930E-A141AC850955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E803E-5A98-444A-A261-F2646B1ABC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E803E-5A98-444A-A261-F2646B1ABC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52717AB-61F1-4389-BB5E-B53EAFAB9AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52717AB-61F1-4389-BB5E-B53EAFAB9AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E2C1BC-AEEC-40C3-B50D-86C4DCFAFC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>C:\github\myxlsm\orcamentos\Arranjo Decorações_arranjo.xlsx</t>
+  </si>
+  <si>
+    <t>TESTE</t>
+  </si>
+  <si>
+    <t>JOCKEY CLUB</t>
+  </si>
+  <si>
+    <t>C:\github\myxlsm\orcamentos\JOCKEY CLUB_TESTE.xlsx</t>
   </si>
 </sst>
 </file>
@@ -462,7 +471,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU9"/>
+  <dimension ref="A1:FU10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1040,6 +1049,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>1888</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E2C1BC-AEEC-40C3-B50D-86C4DCFAFC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ED32F2-DBCC-477A-A423-BAA3C51E787A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>C:\github\myxlsm\orcamentos\JOCKEY CLUB_TESTE.xlsx</t>
+  </si>
+  <si>
+    <t>São José - Páscoa</t>
+  </si>
+  <si>
+    <t>Quantum Engenharia Elétrica Ltda</t>
+  </si>
+  <si>
+    <t>14/02/2023</t>
+  </si>
+  <si>
+    <t>C:\github\myxlsm\orcamentos\Quantum Engenharia Elétrica Ltda_São José - Páscoa.xlsx</t>
   </si>
 </sst>
 </file>
@@ -471,7 +483,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU10"/>
+  <dimension ref="A1:FU11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1075,6 +1087,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ED32F2-DBCC-477A-A423-BAA3C51E787A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97248436-09F7-4E69-BF49-DAFE8DFB7125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97248436-09F7-4E69-BF49-DAFE8DFB7125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6E76D0-0437-49DB-91D4-66EA747EB09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6E76D0-0437-49DB-91D4-66EA747EB09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B990898F-136F-441F-93D6-070D490B3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B990898F-136F-441F-93D6-070D490B3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA7FEFB-029A-4D73-8D63-7BB28668726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA7FEFB-029A-4D73-8D63-7BB28668726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15020701-E971-40C9-A514-388CB8D3A438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15020701-E971-40C9-A514-388CB8D3A438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE167FF-2B6A-4F93-B3F8-143BE66DAFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>C:\github\myxlsm\orcamentos\Quantum Engenharia Elétrica Ltda_São José - Páscoa.xlsx</t>
+  </si>
+  <si>
+    <t>Dante</t>
+  </si>
+  <si>
+    <t>CDL de Joinville</t>
+  </si>
+  <si>
+    <t>15/02/2023</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\CDL de Joinville_Dante.xlsx</t>
   </si>
 </sst>
 </file>
@@ -483,7 +495,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU11"/>
+  <dimension ref="A1:FU12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1113,6 +1125,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE167FF-2B6A-4F93-B3F8-143BE66DAFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8E973E-8ADF-4091-A290-8D77E553967B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8E973E-8ADF-4091-A290-8D77E553967B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1E01E4-A02A-4145-B871-7C0B9F3AF50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1E01E4-A02A-4145-B871-7C0B9F3AF50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDD6709-B4CD-47FF-97C1-318D7A3E7CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDD6709-B4CD-47FF-97C1-318D7A3E7CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F086D0C-2394-40C8-BA3C-50B5D741B858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -161,6 +161,21 @@
   </si>
   <si>
     <t>C:\GitHub\myxlsm\orcamentos\CDL de Joinville_Dante.xlsx</t>
+  </si>
+  <si>
+    <t>ttt</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\CDL de Joinville_ttt.xlsx</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>Fundação Cultural de Camboriú</t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentos\Fundação Cultural de Camboriú_asdasd.xlsx</t>
   </si>
 </sst>
 </file>
@@ -495,7 +510,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:FU12"/>
+  <dimension ref="A1:FU14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1151,6 +1166,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:177" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/orcamentos.xlsx
+++ b/orcamentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F086D0C-2394-40C8-BA3C-50B5D741B858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2705A226-2922-49F5-8AE0-0463919A9114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
